--- a/data/raw/zoobenthos + zooplankton VA 2016-2017.xlsx
+++ b/data/raw/zoobenthos + zooplankton VA 2016-2017.xlsx
@@ -1,27 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Biologie\Master\Thesis\Thesis\data\raw\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC6F133-4B63-4CAD-82B4-A789D40ABB9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="zoobenthos" sheetId="1" r:id="rId1"/>
     <sheet name="zooplankton" sheetId="2" r:id="rId2"/>
     <sheet name="Blad3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Van Wichelen, Jeroen</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -45,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -69,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="0">
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -93,7 +106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G6" authorId="0">
+    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -117,7 +130,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0">
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -141,7 +154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B8" authorId="0">
+    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -165,7 +178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A12" authorId="0">
+    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -189,7 +202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="0">
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -213,7 +226,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0">
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -237,7 +250,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0">
+    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -261,7 +274,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0">
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -285,7 +298,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N15" authorId="0">
+    <comment ref="N15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -309,7 +322,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B16" authorId="0">
+    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -333,7 +346,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B17" authorId="0">
+    <comment ref="B17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -357,7 +370,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B18" authorId="0">
+    <comment ref="B18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -381,7 +394,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B19" authorId="0">
+    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -405,7 +418,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B20" authorId="0">
+    <comment ref="B20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -429,7 +442,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B21" authorId="0">
+    <comment ref="B21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -453,7 +466,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B22" authorId="0">
+    <comment ref="B22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -477,7 +490,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B23" authorId="0">
+    <comment ref="B23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -501,7 +514,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B24" authorId="0">
+    <comment ref="B24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -525,7 +538,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B25" authorId="0">
+    <comment ref="B25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
@@ -549,7 +562,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B26" authorId="0">
+    <comment ref="B26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
       <text>
         <r>
           <rPr>
@@ -573,7 +586,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B27" authorId="0">
+    <comment ref="B27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
       <text>
         <r>
           <rPr>
@@ -597,7 +610,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B28" authorId="0">
+    <comment ref="B28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
       <text>
         <r>
           <rPr>
@@ -621,7 +634,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B29" authorId="0">
+    <comment ref="B29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -645,7 +658,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B30" authorId="0">
+    <comment ref="B30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -669,7 +682,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B31" authorId="0">
+    <comment ref="B31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -693,7 +706,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B32" authorId="0">
+    <comment ref="B32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -717,7 +730,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B33" authorId="0">
+    <comment ref="B33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -741,7 +754,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N33" authorId="0">
+    <comment ref="N33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001F000000}">
       <text>
         <r>
           <rPr>
@@ -765,7 +778,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B34" authorId="0">
+    <comment ref="B34" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000020000000}">
       <text>
         <r>
           <rPr>
@@ -789,7 +802,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B35" authorId="0">
+    <comment ref="B35" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000021000000}">
       <text>
         <r>
           <rPr>
@@ -813,7 +826,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B36" authorId="0">
+    <comment ref="B36" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000022000000}">
       <text>
         <r>
           <rPr>
@@ -837,7 +850,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B37" authorId="0">
+    <comment ref="B37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000023000000}">
       <text>
         <r>
           <rPr>
@@ -861,7 +874,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B38" authorId="0">
+    <comment ref="B38" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000024000000}">
       <text>
         <r>
           <rPr>
@@ -885,7 +898,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B39" authorId="0">
+    <comment ref="B39" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000025000000}">
       <text>
         <r>
           <rPr>
@@ -909,7 +922,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N39" authorId="0">
+    <comment ref="N39" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000026000000}">
       <text>
         <r>
           <rPr>
@@ -933,7 +946,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B40" authorId="0">
+    <comment ref="B40" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000027000000}">
       <text>
         <r>
           <rPr>
@@ -957,7 +970,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B41" authorId="0">
+    <comment ref="B41" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000028000000}">
       <text>
         <r>
           <rPr>
@@ -1180,7 +1193,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -1284,6 +1297,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1291,7 +1307,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1329,9 +1345,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1364,9 +1380,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1399,9 +1432,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1574,11 +1624,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2421,11 +2471,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:S38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B2:S30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2437,29 +2487,16 @@
     <col min="19" max="19" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-    </row>
-    <row r="3" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S2"/>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="4"/>
       <c r="E3" s="6">
         <v>42433</v>
       </c>
@@ -2496,38 +2533,30 @@
       <c r="P3" s="6">
         <v>42517</v>
       </c>
-    </row>
-    <row r="4" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S3"/>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="4"/>
       <c r="E4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
       <c r="L4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="5"/>
       <c r="N4" s="5" t="s">
         <v>24</v>
       </c>
       <c r="O4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="P4" s="5"/>
-    </row>
-    <row r="5" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S4"/>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="4"/>
       <c r="E5" s="5">
         <v>100</v>
       </c>
@@ -2564,12 +2593,12 @@
       <c r="P5" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S5"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="4"/>
       <c r="E6" s="5">
         <v>20</v>
       </c>
@@ -2606,12 +2635,12 @@
       <c r="P6" s="5">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S6"/>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="4"/>
       <c r="E7" s="5">
         <v>10</v>
       </c>
@@ -2648,910 +2677,982 @@
       <c r="P7" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S7"/>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0</v>
+      </c>
+      <c r="M9" s="5">
+        <v>0</v>
+      </c>
       <c r="N9" s="5">
         <v>1</v>
       </c>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-    </row>
-    <row r="10" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O9" s="5">
+        <v>0</v>
+      </c>
+      <c r="P9" s="5">
+        <v>0</v>
+      </c>
+      <c r="S9"/>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="5"/>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
       <c r="F10" s="5">
         <v>1</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-    </row>
-    <row r="11" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0</v>
+      </c>
+      <c r="M10" s="5">
+        <v>0</v>
+      </c>
+      <c r="N10" s="5">
+        <v>0</v>
+      </c>
+      <c r="O10" s="5">
+        <v>0</v>
+      </c>
+      <c r="P10" s="5">
+        <v>0</v>
+      </c>
+      <c r="S10"/>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="5"/>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
       <c r="F11" s="5">
         <v>4</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
       <c r="I11" s="5">
         <v>1</v>
       </c>
       <c r="J11" s="5">
         <v>1</v>
       </c>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
+      <c r="K11" s="5">
+        <v>0</v>
+      </c>
+      <c r="L11" s="5">
+        <v>0</v>
+      </c>
       <c r="M11" s="5">
         <v>9</v>
       </c>
       <c r="N11" s="5">
         <v>12</v>
       </c>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-    </row>
-    <row r="12" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O11" s="5">
+        <v>0</v>
+      </c>
+      <c r="P11" s="5">
+        <v>0</v>
+      </c>
+      <c r="S11"/>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C12" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="4"/>
       <c r="E12" s="5">
         <v>1</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0</v>
+      </c>
       <c r="K12" s="5">
         <v>3</v>
       </c>
-      <c r="L12" s="5"/>
+      <c r="L12" s="5">
+        <v>0</v>
+      </c>
       <c r="M12" s="5">
         <v>2</v>
       </c>
       <c r="N12" s="5">
         <v>4</v>
       </c>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-    </row>
-    <row r="13" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O12" s="5">
+        <v>0</v>
+      </c>
+      <c r="P12" s="5">
+        <v>0</v>
+      </c>
+      <c r="S12"/>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C13" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0</v>
+      </c>
+      <c r="M13" s="5">
+        <v>0</v>
+      </c>
       <c r="N13" s="5">
         <v>1</v>
       </c>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-    </row>
-    <row r="15" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
+      <c r="O13" s="5">
+        <v>0</v>
+      </c>
+      <c r="P13" s="5">
+        <v>0</v>
+      </c>
+      <c r="S13"/>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5">
+      <c r="F14" s="5">
         <v>7</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G14" s="5">
         <v>4</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H14" s="5">
         <v>4</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I14" s="5">
         <v>7</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J14" s="5">
         <v>30</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K14" s="5">
         <v>52</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L14" s="5">
         <v>26</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M14" s="5">
         <v>18</v>
       </c>
-      <c r="N15" s="5">
+      <c r="N14" s="5">
         <v>17</v>
       </c>
-      <c r="O15" s="5">
+      <c r="O14" s="5">
         <v>12</v>
       </c>
-      <c r="P15" s="5">
+      <c r="P14" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+      <c r="S14"/>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>34</v>
       </c>
+      <c r="C16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="4">
+        <v>5</v>
+      </c>
+      <c r="E16" s="8">
+        <f>E9/E$7*E$5/E$6</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="8">
+        <f>F9/F$7*F$5/F$6</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="8">
+        <f>G9/G$7*G$5/G$6</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="8">
+        <f>H9/H$7*H$5/H$6</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="8">
+        <f>I9/I$7*I$5/I$6</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="8">
+        <f>J9/J$7*J$5/J$6</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="8">
+        <f>K9/K$7*K$5/K$6</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="8">
+        <f>L9/L$7*L$5/L$6</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="8">
+        <f>M9/M$7*M$5/M$6</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="8">
+        <f>N9/N$7*N$5/N$6</f>
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="O16" s="8">
+        <f>O9/O$7*O$5/O$6</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="8">
+        <f>P9/P$7*P$5/P$6</f>
+        <v>0</v>
+      </c>
+      <c r="S16"/>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
+        <f>E10/E$7*E$5/E$6</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="8">
+        <f>F10/F$7*F$5/F$6</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G17" s="8">
+        <f>G10/G$7*G$5/G$6</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="8">
+        <f>H10/H$7*H$5/H$6</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="8">
+        <f>I10/I$7*I$5/I$6</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="8">
+        <f>J10/J$7*J$5/J$6</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="8">
+        <f>K10/K$7*K$5/K$6</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="8">
+        <f>L10/L$7*L$5/L$6</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="8">
+        <f>M10/M$7*M$5/M$6</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="8">
+        <f>N10/N$7*N$5/N$6</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="8">
+        <f>O10/O$7*O$5/O$6</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="8">
+        <f>P10/P$7*P$5/P$6</f>
+        <v>0</v>
+      </c>
+      <c r="S17"/>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="E18" s="8">
+        <f>E11/E$7*E$5/E$6</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="8">
+        <f>F11/F$7*F$5/F$6</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="G18" s="8">
+        <f>G11/G$7*G$5/G$6</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="8">
+        <f>H11/H$7*H$5/H$6</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="8">
+        <f>I11/I$7*I$5/I$6</f>
+        <v>0.95238095238095233</v>
+      </c>
+      <c r="J18" s="8">
+        <f>J11/J$7*J$5/J$6</f>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="K18" s="8">
+        <f>K11/K$7*K$5/K$6</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="8">
+        <f>L11/L$7*L$5/L$6</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="8">
+        <f>M11/M$7*M$5/M$6</f>
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="N18" s="8">
+        <f>N11/N$7*N$5/N$6</f>
+        <v>17.142857142857142</v>
+      </c>
+      <c r="O18" s="8">
+        <f>O11/O$7*O$5/O$6</f>
+        <v>0</v>
+      </c>
+      <c r="P18" s="8">
+        <f>P11/P$7*P$5/P$6</f>
+        <v>0</v>
+      </c>
+      <c r="S18"/>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="4">
+        <v>10</v>
+      </c>
+      <c r="E19" s="8">
+        <f>E12/E$7*E$5/E$6</f>
+        <v>0.5</v>
+      </c>
+      <c r="F19" s="8">
+        <f>F12/F$7*F$5/F$6</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="8">
+        <f>G12/G$7*G$5/G$6</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="8">
+        <f>H12/H$7*H$5/H$6</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="8">
+        <f>I12/I$7*I$5/I$6</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="8">
+        <f>J12/J$7*J$5/J$6</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="8">
+        <f>K12/K$7*K$5/K$6</f>
+        <v>1.3043478260869565</v>
+      </c>
+      <c r="L19" s="8">
+        <f>L12/L$7*L$5/L$6</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="8">
+        <f>M12/M$7*M$5/M$6</f>
+        <v>0.95238095238095233</v>
+      </c>
+      <c r="N19" s="8">
+        <f>N12/N$7*N$5/N$6</f>
+        <v>5.7142857142857144</v>
+      </c>
+      <c r="O19" s="8">
+        <f>O12/O$7*O$5/O$6</f>
+        <v>0</v>
+      </c>
+      <c r="P19" s="8">
+        <f>P12/P$7*P$5/P$6</f>
+        <v>0</v>
+      </c>
+      <c r="S19"/>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="4">
+        <v>3</v>
+      </c>
+      <c r="E20" s="8">
+        <f>E13/E$7*E$5/E$6</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <f>F13/F$7*F$5/F$6</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="8">
+        <f>G13/G$7*G$5/G$6</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="8">
+        <f>H13/H$7*H$5/H$6</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="8">
+        <f>I13/I$7*I$5/I$6</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="8">
+        <f>J13/J$7*J$5/J$6</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="8">
+        <f>K13/K$7*K$5/K$6</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="8">
+        <f>L13/L$7*L$5/L$6</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="8">
+        <f>M13/M$7*M$5/M$6</f>
+        <v>0</v>
+      </c>
+      <c r="N20" s="8">
+        <f>N13/N$7*N$5/N$6</f>
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="O20" s="8">
+        <f>O13/O$7*O$5/O$6</f>
+        <v>0</v>
+      </c>
+      <c r="P20" s="8">
+        <f>P13/P$7*P$5/P$6</f>
+        <v>0</v>
+      </c>
+      <c r="S20"/>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="4">
+        <v>7</v>
+      </c>
+      <c r="E21" s="8">
+        <f>E14/E$7*E$5/E$6</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="8">
+        <f>F14/F$7*F$5/F$6</f>
+        <v>2.9166666666666665</v>
+      </c>
+      <c r="G21" s="8">
+        <f>G14/G$7*G$5/G$6</f>
+        <v>3.6363636363636362</v>
+      </c>
+      <c r="H21" s="8">
+        <f>H14/H$7*H$5/H$6</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="I21" s="8">
+        <f>I14/I$7*I$5/I$6</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="J21" s="8">
+        <f>J14/J$7*J$5/J$6</f>
+        <v>10.714285714285714</v>
+      </c>
+      <c r="K21" s="8">
+        <f>K14/K$7*K$5/K$6</f>
+        <v>22.608695652173914</v>
+      </c>
+      <c r="L21" s="8">
+        <f>L14/L$7*L$5/L$6</f>
+        <v>20</v>
+      </c>
+      <c r="M21" s="8">
+        <f>M14/M$7*M$5/M$6</f>
+        <v>8.5714285714285712</v>
+      </c>
+      <c r="N21" s="8">
+        <f>N14/N$7*N$5/N$6</f>
+        <v>24.285714285714285</v>
+      </c>
+      <c r="O21" s="8">
+        <f>O14/O$7*O$5/O$6</f>
+        <v>8.5714285714285712</v>
+      </c>
+      <c r="P21" s="8">
+        <f>P14/P$7*P$5/P$6</f>
+        <v>3.0769230769230771</v>
+      </c>
+      <c r="S21"/>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="4">
+      <c r="E23" s="8">
+        <f>E16*$D16</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="8">
+        <f>F16*$D16</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="8">
+        <f>G16*$D16</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="8">
+        <f>H16*$D16</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="8">
+        <f>I16*$D16</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="8">
+        <f>J16*$D16</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="8">
+        <f>K16*$D16</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="8">
+        <f>L16*$D16</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="8">
+        <f>M16*$D16</f>
+        <v>0</v>
+      </c>
+      <c r="N23" s="8">
+        <f>N16*$D16</f>
+        <v>7.1428571428571432</v>
+      </c>
+      <c r="O23" s="8">
+        <f>O16*$D16</f>
+        <v>0</v>
+      </c>
+      <c r="P23" s="8">
+        <f>P16*$D16</f>
+        <v>0</v>
+      </c>
+      <c r="S23"/>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C24" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="8">
+        <f>E17*$D17</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="8">
+        <f>F17*$D17</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G24" s="8">
+        <f>G17*$D17</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="8">
+        <f>H17*$D17</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="8">
+        <f>I17*$D17</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="8">
+        <f>J17*$D17</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="8">
+        <f>K17*$D17</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="8">
+        <f>L17*$D17</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="8">
+        <f>M17*$D17</f>
+        <v>0</v>
+      </c>
+      <c r="N24" s="8">
+        <f>N17*$D17</f>
+        <v>0</v>
+      </c>
+      <c r="O24" s="8">
+        <f>O17*$D17</f>
+        <v>0</v>
+      </c>
+      <c r="P24" s="8">
+        <f>P17*$D17</f>
+        <v>0</v>
+      </c>
+      <c r="S24"/>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="8">
+        <f>E18*$D18</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="8">
+        <f>F18*$D18</f>
+        <v>2.5</v>
+      </c>
+      <c r="G25" s="8">
+        <f>G18*$D18</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="8">
+        <f>H18*$D18</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="8">
+        <f>I18*$D18</f>
+        <v>1.4285714285714284</v>
+      </c>
+      <c r="J25" s="8">
+        <f>J18*$D18</f>
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="K25" s="8">
+        <f>K18*$D18</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="8">
+        <f>L18*$D18</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="8">
+        <f>M18*$D18</f>
+        <v>6.4285714285714288</v>
+      </c>
+      <c r="N25" s="8">
+        <f>N18*$D18</f>
+        <v>25.714285714285715</v>
+      </c>
+      <c r="O25" s="8">
+        <f>O18*$D18</f>
+        <v>0</v>
+      </c>
+      <c r="P25" s="8">
+        <f>P18*$D18</f>
+        <v>0</v>
+      </c>
+      <c r="S25"/>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="8">
+        <f>E19*$D19</f>
         <v>5</v>
       </c>
-      <c r="E20" s="8">
-        <f>E9/E$7*E$5/E$6</f>
-        <v>0</v>
-      </c>
-      <c r="F20" s="8">
-        <f t="shared" ref="F20:P20" si="0">F9/F$7*F$5/F$6</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K20" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M20" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N20" s="8">
-        <f t="shared" si="0"/>
-        <v>1.4285714285714286</v>
-      </c>
-      <c r="O20" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P20" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="4">
-        <v>1</v>
-      </c>
-      <c r="E21" s="8">
-        <f t="shared" ref="E21:P24" si="1">E10/E$7*E$5/E$6</f>
-        <v>0</v>
-      </c>
-      <c r="F21" s="8">
-        <f t="shared" si="1"/>
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="G21" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L21" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M21" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N21" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O21" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P21" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="E22" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="8">
-        <f t="shared" si="1"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="G22" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="8">
-        <f t="shared" si="1"/>
-        <v>0.95238095238095233</v>
-      </c>
-      <c r="J22" s="8">
-        <f t="shared" si="1"/>
-        <v>0.35714285714285715</v>
-      </c>
-      <c r="K22" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L22" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M22" s="8">
-        <f t="shared" si="1"/>
+      <c r="F26" s="8">
+        <f>F19*$D19</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="8">
+        <f>G19*$D19</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="8">
+        <f>H19*$D19</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="8">
+        <f>I19*$D19</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="8">
+        <f>J19*$D19</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="8">
+        <f>K19*$D19</f>
+        <v>13.043478260869566</v>
+      </c>
+      <c r="L26" s="8">
+        <f>L19*$D19</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="8">
+        <f>M19*$D19</f>
+        <v>9.5238095238095237</v>
+      </c>
+      <c r="N26" s="8">
+        <f>N19*$D19</f>
+        <v>57.142857142857146</v>
+      </c>
+      <c r="O26" s="8">
+        <f>O19*$D19</f>
+        <v>0</v>
+      </c>
+      <c r="P26" s="8">
+        <f>P19*$D19</f>
+        <v>0</v>
+      </c>
+      <c r="S26"/>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C27" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="8">
+        <f>E20*$D20</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="8">
+        <f>F20*$D20</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="8">
+        <f>G20*$D20</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="8">
+        <f>H20*$D20</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="8">
+        <f>I20*$D20</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="8">
+        <f>J20*$D20</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="8">
+        <f>K20*$D20</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="8">
+        <f>L20*$D20</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="8">
+        <f>M20*$D20</f>
+        <v>0</v>
+      </c>
+      <c r="N27" s="8">
+        <f>N20*$D20</f>
         <v>4.2857142857142856</v>
       </c>
-      <c r="N22" s="8">
-        <f t="shared" si="1"/>
-        <v>17.142857142857142</v>
-      </c>
-      <c r="O22" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P22" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="4">
-        <v>10</v>
-      </c>
-      <c r="E23" s="8">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="F23" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="8">
-        <f t="shared" si="1"/>
-        <v>1.3043478260869565</v>
-      </c>
-      <c r="L23" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M23" s="8">
-        <f t="shared" si="1"/>
-        <v>0.95238095238095233</v>
-      </c>
-      <c r="N23" s="8">
-        <f t="shared" si="1"/>
-        <v>5.7142857142857144</v>
-      </c>
-      <c r="O23" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P23" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="4">
-        <v>3</v>
-      </c>
-      <c r="E24" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H24" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I24" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L24" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M24" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N24" s="8">
-        <f t="shared" si="1"/>
-        <v>1.4285714285714286</v>
-      </c>
-      <c r="O24" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P24" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D25" s="4"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-    </row>
-    <row r="26" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
+      <c r="O27" s="8">
+        <f>O20*$D20</f>
+        <v>0</v>
+      </c>
+      <c r="P27" s="8">
+        <f>P20*$D20</f>
+        <v>0</v>
+      </c>
+      <c r="S27"/>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="4">
-        <v>7</v>
-      </c>
-      <c r="E26" s="8">
-        <f t="shared" ref="E26:P26" si="2">E15/E$7*E$5/E$6</f>
-        <v>0</v>
-      </c>
-      <c r="F26" s="8">
-        <f t="shared" si="2"/>
-        <v>2.9166666666666665</v>
-      </c>
-      <c r="G26" s="8">
-        <f t="shared" si="2"/>
-        <v>3.6363636363636362</v>
-      </c>
-      <c r="H26" s="8">
-        <f t="shared" si="2"/>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="I26" s="8">
-        <f t="shared" si="2"/>
-        <v>6.666666666666667</v>
-      </c>
-      <c r="J26" s="8">
-        <f t="shared" si="2"/>
-        <v>10.714285714285714</v>
-      </c>
-      <c r="K26" s="8">
-        <f t="shared" si="2"/>
-        <v>22.608695652173914</v>
-      </c>
-      <c r="L26" s="8">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="M26" s="8">
-        <f t="shared" si="2"/>
-        <v>8.5714285714285712</v>
-      </c>
-      <c r="N26" s="8">
-        <f t="shared" si="2"/>
-        <v>24.285714285714285</v>
-      </c>
-      <c r="O26" s="8">
-        <f t="shared" si="2"/>
-        <v>8.5714285714285712</v>
-      </c>
-      <c r="P26" s="8">
-        <f t="shared" si="2"/>
-        <v>3.0769230769230771</v>
-      </c>
-    </row>
-    <row r="30" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="8">
-        <f>E20*$D20</f>
-        <v>0</v>
-      </c>
-      <c r="F30" s="8">
-        <f t="shared" ref="F30:P30" si="3">F20*$D20</f>
-        <v>0</v>
-      </c>
-      <c r="G30" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H30" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I30" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J30" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L30" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M30" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N30" s="8">
-        <f t="shared" si="3"/>
-        <v>7.1428571428571432</v>
-      </c>
-      <c r="O30" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P30" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="8">
-        <f t="shared" ref="E31:P34" si="4">E21*$D21</f>
-        <v>0</v>
-      </c>
-      <c r="F31" s="8">
-        <f t="shared" si="4"/>
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="G31" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H31" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I31" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J31" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L31" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M31" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N31" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O31" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P31" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F32" s="8">
-        <f t="shared" si="4"/>
-        <v>2.5</v>
-      </c>
-      <c r="G32" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H32" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="8">
-        <f t="shared" si="4"/>
-        <v>1.4285714285714284</v>
-      </c>
-      <c r="J32" s="8">
-        <f t="shared" si="4"/>
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="K32" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L32" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M32" s="8">
-        <f t="shared" si="4"/>
-        <v>6.4285714285714288</v>
-      </c>
-      <c r="N32" s="8">
-        <f t="shared" si="4"/>
-        <v>25.714285714285715</v>
-      </c>
-      <c r="O32" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P32" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="3:16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="8">
-        <f t="shared" si="4"/>
+      <c r="E28" s="8">
+        <f>E21*$D21</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="8">
+        <f>F21*$D21</f>
+        <v>20.416666666666664</v>
+      </c>
+      <c r="G28" s="8">
+        <f>G21*$D21</f>
+        <v>25.454545454545453</v>
+      </c>
+      <c r="H28" s="8">
+        <f>H21*$D21</f>
+        <v>9.3333333333333321</v>
+      </c>
+      <c r="I28" s="8">
+        <f>I21*$D21</f>
+        <v>46.666666666666671</v>
+      </c>
+      <c r="J28" s="8">
+        <f>J21*$D21</f>
+        <v>75</v>
+      </c>
+      <c r="K28" s="8">
+        <f>K21*$D21</f>
+        <v>158.2608695652174</v>
+      </c>
+      <c r="L28" s="8">
+        <f>L21*$D21</f>
+        <v>140</v>
+      </c>
+      <c r="M28" s="8">
+        <f>M21*$D21</f>
+        <v>60</v>
+      </c>
+      <c r="N28" s="8">
+        <f>N21*$D21</f>
+        <v>170</v>
+      </c>
+      <c r="O28" s="8">
+        <f>O21*$D21</f>
+        <v>60</v>
+      </c>
+      <c r="P28" s="8">
+        <f>P21*$D21</f>
+        <v>21.53846153846154</v>
+      </c>
+      <c r="S28"/>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="9">
+        <f>SUM(E23:E28)</f>
         <v>5</v>
       </c>
-      <c r="F33" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H33" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I33" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J33" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K33" s="8">
-        <f t="shared" si="4"/>
-        <v>13.043478260869566</v>
-      </c>
-      <c r="L33" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M33" s="8">
-        <f t="shared" si="4"/>
-        <v>9.5238095238095237</v>
-      </c>
-      <c r="N33" s="8">
-        <f t="shared" si="4"/>
-        <v>57.142857142857146</v>
-      </c>
-      <c r="O33" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P33" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="3:16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G34" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H34" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I34" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J34" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K34" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L34" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M34" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N34" s="8">
-        <f t="shared" si="4"/>
-        <v>4.2857142857142856</v>
-      </c>
-      <c r="O34" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P34" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="3:16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D35" s="4"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-    </row>
-    <row r="36" spans="3:16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
-        <v>33</v>
-      </c>
-      <c r="D36" s="4"/>
-      <c r="E36" s="8">
-        <f t="shared" ref="E36:P36" si="5">E26*$D26</f>
-        <v>0</v>
-      </c>
-      <c r="F36" s="8">
-        <f t="shared" si="5"/>
-        <v>20.416666666666664</v>
-      </c>
-      <c r="G36" s="8">
-        <f>G26*$D26</f>
+      <c r="F30" s="9">
+        <f>SUM(F23:F28)</f>
+        <v>23.333333333333332</v>
+      </c>
+      <c r="G30" s="9">
+        <f>SUM(G23:G28)</f>
         <v>25.454545454545453</v>
       </c>
-      <c r="H36" s="8">
-        <f t="shared" si="5"/>
+      <c r="H30" s="9">
+        <f>SUM(H23:H28)</f>
         <v>9.3333333333333321</v>
       </c>
-      <c r="I36" s="8">
-        <f t="shared" si="5"/>
-        <v>46.666666666666671</v>
-      </c>
-      <c r="J36" s="8">
-        <f t="shared" si="5"/>
-        <v>75</v>
-      </c>
-      <c r="K36" s="8">
-        <f t="shared" si="5"/>
-        <v>158.2608695652174</v>
-      </c>
-      <c r="L36" s="8">
-        <f t="shared" si="5"/>
+      <c r="I30" s="9">
+        <f>SUM(I23:I28)</f>
+        <v>48.095238095238102</v>
+      </c>
+      <c r="J30" s="9">
+        <f>SUM(J23:J28)</f>
+        <v>75.535714285714292</v>
+      </c>
+      <c r="K30" s="9">
+        <f>SUM(K23:K28)</f>
+        <v>171.30434782608697</v>
+      </c>
+      <c r="L30" s="9">
+        <f>SUM(L23:L28)</f>
         <v>140</v>
       </c>
-      <c r="M36" s="8">
-        <f t="shared" si="5"/>
+      <c r="M30" s="9">
+        <f>SUM(M23:M28)</f>
+        <v>75.952380952380949</v>
+      </c>
+      <c r="N30" s="9">
+        <f>SUM(N23:N28)</f>
+        <v>264.28571428571428</v>
+      </c>
+      <c r="O30" s="9">
+        <f>SUM(O23:O28)</f>
         <v>60</v>
       </c>
-      <c r="N36" s="8">
-        <f t="shared" si="5"/>
-        <v>170</v>
-      </c>
-      <c r="O36" s="8">
-        <f t="shared" si="5"/>
-        <v>60</v>
-      </c>
-      <c r="P36" s="8">
-        <f t="shared" si="5"/>
+      <c r="P30" s="9">
+        <f>SUM(P23:P28)</f>
         <v>21.53846153846154</v>
       </c>
-    </row>
-    <row r="38" spans="3:16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
-        <v>36</v>
-      </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="9">
-        <f>SUM(E30:E36)</f>
-        <v>5</v>
-      </c>
-      <c r="F38" s="9">
-        <f t="shared" ref="F38:P38" si="6">SUM(F30:F36)</f>
-        <v>23.333333333333332</v>
-      </c>
-      <c r="G38" s="9">
-        <f t="shared" si="6"/>
-        <v>25.454545454545453</v>
-      </c>
-      <c r="H38" s="9">
-        <f t="shared" si="6"/>
-        <v>9.3333333333333321</v>
-      </c>
-      <c r="I38" s="9">
-        <f t="shared" si="6"/>
-        <v>48.095238095238102</v>
-      </c>
-      <c r="J38" s="9">
-        <f t="shared" si="6"/>
-        <v>75.535714285714292</v>
-      </c>
-      <c r="K38" s="9">
-        <f t="shared" si="6"/>
-        <v>171.30434782608697</v>
-      </c>
-      <c r="L38" s="9">
-        <f t="shared" si="6"/>
-        <v>140</v>
-      </c>
-      <c r="M38" s="9">
-        <f t="shared" si="6"/>
-        <v>75.952380952380949</v>
-      </c>
-      <c r="N38" s="9">
-        <f t="shared" si="6"/>
-        <v>264.28571428571428</v>
-      </c>
-      <c r="O38" s="9">
-        <f t="shared" si="6"/>
-        <v>60</v>
-      </c>
-      <c r="P38" s="9">
-        <f t="shared" si="6"/>
-        <v>21.53846153846154</v>
-      </c>
+      <c r="S30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3559,7 +3660,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
